--- a/medicine/Psychotrope/Paysage_viticole_du_Piémont___Langhe-Roero_et_Monferrato/Paysage_viticole_du_Piémont___Langhe-Roero_et_Monferrato.xlsx
+++ b/medicine/Psychotrope/Paysage_viticole_du_Piémont___Langhe-Roero_et_Monferrato/Paysage_viticole_du_Piémont___Langhe-Roero_et_Monferrato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paysage_viticole_du_Pi%C3%A9mont_:_Langhe-Roero_et_Monferrato</t>
+          <t>Paysage_viticole_du_Piémont_:_Langhe-Roero_et_Monferrato</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le paysage viticole du Piémont : Langhe-Roero et Monferrato est l'appellation sous laquelle l'UNESCO a inscrit un site, au nord-ouest de l'Italie, sur la liste du patrimoine mondial[1].
-Le site est inscrit comme étant un « paysage culturel » puisqu'il est le résultat du travail combiné de la nature et des humains. Il est reconnu pour sa culture viticole, qui a forgé le paysage au cours des siècles[2]. Il comprend des territoires des provinces de Coni, Asti et Alexandrie, dans la région des Langhe et du Monferrat[3].
+Le paysage viticole du Piémont : Langhe-Roero et Monferrato est l'appellation sous laquelle l'UNESCO a inscrit un site, au nord-ouest de l'Italie, sur la liste du patrimoine mondial.
+Le site est inscrit comme étant un « paysage culturel » puisqu'il est le résultat du travail combiné de la nature et des humains. Il est reconnu pour sa culture viticole, qui a forgé le paysage au cours des siècles. Il comprend des territoires des provinces de Coni, Asti et Alexandrie, dans la région des Langhe et du Monferrat.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paysage_viticole_du_Pi%C3%A9mont_:_Langhe-Roero_et_Monferrato</t>
+          <t>Paysage_viticole_du_Piémont_:_Langhe-Roero_et_Monferrato</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce site comprend le château de Grinzane Cavour, nom emblématique dans l'histoire italienne et le développement des vins, ainsi que cinq vignobles distincts dont les paysages sont considérés par l'UNESCO comme ayant une valeur culturelle et historique, et qui sont le berceau des vins Barolo, Barbaresco, Barbera, et Asti spumante. Les paysages se déroulent dans le sud du Piémont , entre la rivière Pô et l'Apennin ligure. Il n'y a cependant pas de continuité entre les différents emplacements protégés, qui ne sont pas mitoyens. Le lien commun est caractérisé par l'ensemble des processus techniques et économiques liés à la viticulture et de la vinification, qui unifie la région pendant des siècles, en modelant la nature environnante. C'est dans ce site qu'ont été retrouvés des pollens de vigne datant du Ve siècle av. J.-C., lorsque le Piémont était un lieu de contact et d'échange entre Étrusques et Celtes. Pline l'Ancien mentionne le Piémont comme l'un des plus favorables pour la culture du vin dans l'Italie antique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce site comprend le château de Grinzane Cavour, nom emblématique dans l'histoire italienne et le développement des vins, ainsi que cinq vignobles distincts dont les paysages sont considérés par l'UNESCO comme ayant une valeur culturelle et historique, et qui sont le berceau des vins Barolo, Barbaresco, Barbera, et Asti spumante. Les paysages se déroulent dans le sud du Piémont , entre la rivière Pô et l'Apennin ligure. Il n'y a cependant pas de continuité entre les différents emplacements protégés, qui ne sont pas mitoyens. Le lien commun est caractérisé par l'ensemble des processus techniques et économiques liés à la viticulture et de la vinification, qui unifie la région pendant des siècles, en modelant la nature environnante. C'est dans ce site qu'ont été retrouvés des pollens de vigne datant du Ve siècle av. J.-C., lorsque le Piémont était un lieu de contact et d'échange entre Étrusques et Celtes. Pline l'Ancien mentionne le Piémont comme l'un des plus favorables pour la culture du vin dans l'Italie antique.
 			Vignes dans le Piémont
 			Un Infernòt creusé dans le tuf dans une exploitation agricole de Castagnole Monferrato
 			Le château de Grinzane Cavour
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paysage_viticole_du_Pi%C3%A9mont_:_Langhe-Roero_et_Monferrato</t>
+          <t>Paysage_viticole_du_Piémont_:_Langhe-Roero_et_Monferrato</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site inscrit au patrimoine mondial s'étend sur 6 sites unis dans une continuité de paysage[5]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site inscrit au patrimoine mondial s'étend sur 6 sites unis dans une continuité de paysage:
 </t>
         </is>
       </c>
